--- a/src/models/data/doctor_time_off.xlsx
+++ b/src/models/data/doctor_time_off.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,415 +416,522 @@
         <v>to</v>
       </c>
       <c r="E1" t="str">
-        <v>time_start</v>
-      </c>
-      <c r="F1" t="str">
-        <v>time_end</v>
+        <v>session</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>8f911f14-93b6-456c-aecd-b0bde8785dad</v>
+        <v>f4695af4-4130-41ab-86d6-b9557eed365a</v>
       </c>
       <c r="B2" t="str">
         <v>353066b6-4bb7-4df8-8f46-88f71bf6a182</v>
       </c>
       <c r="C2" t="str">
-        <v>2023-04-23</v>
+        <v>2023-05-04</v>
       </c>
       <c r="D2" t="str">
-        <v>2023-04-24</v>
+        <v>2023-05-05</v>
       </c>
       <c r="E2" t="str">
-        <v>9:00</v>
-      </c>
-      <c r="F2" t="str">
-        <v>11:30</v>
+        <v>Afternoon</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>f9d69455-db53-4c20-be7f-dfe0e19b4369</v>
+        <v>d81ced78-a854-4fa6-b5b4-50df9f8e8f32</v>
       </c>
       <c r="B3" t="str">
         <v>353066b6-4bb7-4df8-8f46-88f71bf6a182</v>
       </c>
       <c r="C3" t="str">
-        <v>2023-05-12</v>
+        <v>2023-05-23</v>
       </c>
       <c r="D3" t="str">
-        <v>2023-05-13</v>
+        <v>2023-05-23</v>
       </c>
       <c r="E3" t="str">
-        <v>8:00</v>
-      </c>
-      <c r="F3" t="str">
-        <v xml:space="preserve">16:30	</v>
+        <v>WholeDay</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>492ed855-46ea-4495-8f0e-e4126215bdd6</v>
+        <v>b8b7ef74-4f3f-45ec-9cd8-c2e88b86e648</v>
       </c>
       <c r="B4" t="str">
-        <v>1aff8187-23a0-4da6-b842-1ec012d2c703</v>
+        <v>353066b6-4bb7-4df8-8f46-88f71bf6a182</v>
       </c>
       <c r="C4" t="str">
-        <v>2023-04-16</v>
+        <v>2023-06-17</v>
       </c>
       <c r="D4" t="str">
-        <v>2023-04-17</v>
+        <v>2023-06-17</v>
       </c>
       <c r="E4" t="str">
-        <v>8:00</v>
-      </c>
-      <c r="F4" t="str">
-        <v xml:space="preserve">13:30	</v>
+        <v>Morning</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>ad2354d7-cf35-433f-8427-d8eebc333345</v>
+        <v>d967c332-3cd6-46df-b17e-c4e3147d2e02</v>
       </c>
       <c r="B5" t="str">
         <v>1aff8187-23a0-4da6-b842-1ec012d2c703</v>
       </c>
       <c r="C5" t="str">
-        <v>2023-05-02</v>
+        <v>2023-05-11</v>
       </c>
       <c r="D5" t="str">
-        <v>2023-05-02</v>
+        <v>2023-05-11</v>
       </c>
       <c r="E5" t="str">
-        <v>11:30</v>
-      </c>
-      <c r="F5" t="str">
-        <v xml:space="preserve">15:00	</v>
+        <v>Morning</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>f259155c-07d5-48f9-b32a-dff161e08fdc</v>
+        <v>693cf0fe-f6b0-473d-b07b-f53763e16e06</v>
       </c>
       <c r="B6" t="str">
-        <v>f1c1a90a-97c5-48f6-8b6d-98d6e4fc944d</v>
+        <v>1aff8187-23a0-4da6-b842-1ec012d2c703</v>
       </c>
       <c r="C6" t="str">
-        <v>2023-04-13</v>
+        <v>2023-05-22</v>
       </c>
       <c r="D6" t="str">
-        <v>2023-04-14</v>
+        <v>2023-05-22</v>
       </c>
       <c r="E6" t="str">
-        <v>8:30</v>
-      </c>
-      <c r="F6" t="str">
-        <v>11:30</v>
+        <v>Morning</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>ada83b57-2a7f-4558-897a-2bc41e28f764</v>
+        <v>8bb881e2-bc03-4f1e-bec4-e3f7f8bfd526</v>
       </c>
       <c r="B7" t="str">
-        <v>f1c1a90a-97c5-48f6-8b6d-98d6e4fc944d</v>
+        <v>1aff8187-23a0-4da6-b842-1ec012d2c703</v>
       </c>
       <c r="C7" t="str">
-        <v>2023-05-07</v>
+        <v>2023-06-16</v>
       </c>
       <c r="D7" t="str">
-        <v>2023-05-07</v>
+        <v>2023-06-16</v>
       </c>
       <c r="E7" t="str">
-        <v>8:30</v>
-      </c>
-      <c r="F7" t="str">
-        <v>10:00</v>
+        <v>WholeDay</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>94acb4c9-2206-405b-88b1-4b116afef922</v>
+        <v>40c1031a-d6d1-4db2-8dbe-71172cdcb227</v>
       </c>
       <c r="B8" t="str">
-        <v>da9369c6-d3a7-4c4d-8ae7-2d2256bb6d23</v>
+        <v>f1c1a90a-97c5-48f6-8b6d-98d6e4fc944d</v>
       </c>
       <c r="C8" t="str">
-        <v>2023-04-23</v>
+        <v>2023-04-27</v>
       </c>
       <c r="D8" t="str">
-        <v>2023-04-23</v>
+        <v>2023-04-27</v>
       </c>
       <c r="E8" t="str">
-        <v xml:space="preserve">15:30	</v>
-      </c>
-      <c r="F8" t="str">
-        <v xml:space="preserve">16:00	</v>
+        <v>Afternoon</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>43796bce-dfe0-4300-9988-c7e5ed84bbaa</v>
+        <v>77430b02-5441-4103-866e-e93270a8d581</v>
       </c>
       <c r="B9" t="str">
-        <v>da9369c6-d3a7-4c4d-8ae7-2d2256bb6d23</v>
+        <v>f1c1a90a-97c5-48f6-8b6d-98d6e4fc944d</v>
       </c>
       <c r="C9" t="str">
-        <v>2023-05-14</v>
+        <v>2023-05-21</v>
       </c>
       <c r="D9" t="str">
-        <v>2023-05-15</v>
+        <v>2023-05-22</v>
       </c>
       <c r="E9" t="str">
-        <v>8:00</v>
-      </c>
-      <c r="F9" t="str">
-        <v xml:space="preserve">15:30	</v>
+        <v>WholeDay</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>e0dc9c33-f319-41ef-8f95-9fd844115796</v>
+        <v>cf050a98-1a65-4286-bba0-d03a28e96b3c</v>
       </c>
       <c r="B10" t="str">
-        <v>03b1f097-cabc-408a-a946-a25289fd1b1a</v>
+        <v>f1c1a90a-97c5-48f6-8b6d-98d6e4fc944d</v>
       </c>
       <c r="C10" t="str">
-        <v>2023-04-30</v>
+        <v>2023-06-18</v>
       </c>
       <c r="D10" t="str">
-        <v>2023-04-30</v>
+        <v>2023-06-19</v>
       </c>
       <c r="E10" t="str">
-        <v>10:00</v>
-      </c>
-      <c r="F10" t="str">
-        <v xml:space="preserve">16:00	</v>
+        <v>Afternoon</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>486b531e-36e2-4cf5-86b1-27d8a45ee41f</v>
+        <v>6ce76465-f659-4a82-94e0-3744a0cc17d6</v>
       </c>
       <c r="B11" t="str">
-        <v>03b1f097-cabc-408a-a946-a25289fd1b1a</v>
+        <v>da9369c6-d3a7-4c4d-8ae7-2d2256bb6d23</v>
       </c>
       <c r="C11" t="str">
-        <v>2023-05-10</v>
+        <v>2023-05-02</v>
       </c>
       <c r="D11" t="str">
-        <v>2023-05-11</v>
+        <v>2023-05-03</v>
       </c>
       <c r="E11" t="str">
-        <v>8:00</v>
-      </c>
-      <c r="F11" t="str">
-        <v xml:space="preserve">15:00	</v>
+        <v>Afternoon</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>3de1635d-8367-4260-b2a4-80bf65985be5</v>
+        <v>8e26635d-6ea5-488f-9b7e-640558bcbafe</v>
       </c>
       <c r="B12" t="str">
-        <v>7b94a786-ecbb-47df-9477-cf18aeb1d4c4</v>
+        <v>da9369c6-d3a7-4c4d-8ae7-2d2256bb6d23</v>
       </c>
       <c r="C12" t="str">
-        <v>2023-04-25</v>
+        <v>2023-05-21</v>
       </c>
       <c r="D12" t="str">
-        <v>2023-04-26</v>
+        <v>2023-05-21</v>
       </c>
       <c r="E12" t="str">
-        <v>10:30</v>
-      </c>
-      <c r="F12" t="str">
-        <v xml:space="preserve">16:00	</v>
+        <v>Morning</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>7fb684a8-78d4-4c88-a3d9-4c94f667c975</v>
+        <v>3d00aadf-6f7f-4d02-9af4-e70a7cf1cef4</v>
       </c>
       <c r="B13" t="str">
-        <v>7b94a786-ecbb-47df-9477-cf18aeb1d4c4</v>
+        <v>da9369c6-d3a7-4c4d-8ae7-2d2256bb6d23</v>
       </c>
       <c r="C13" t="str">
-        <v>2023-05-08</v>
+        <v>2023-06-12</v>
       </c>
       <c r="D13" t="str">
-        <v>2023-05-09</v>
+        <v>2023-06-13</v>
       </c>
       <c r="E13" t="str">
-        <v>10:30</v>
-      </c>
-      <c r="F13" t="str">
-        <v>11:30</v>
+        <v>WholeDay</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>72ad1a0e-b906-429a-b835-906123373b3a</v>
+        <v>645b8554-f449-4a2d-879a-30c17d2f0a84</v>
       </c>
       <c r="B14" t="str">
-        <v>7a774d99-0e16-497e-b78f-38027d81044a</v>
+        <v>03b1f097-cabc-408a-a946-a25289fd1b1a</v>
       </c>
       <c r="C14" t="str">
-        <v>2023-04-21</v>
+        <v>2023-05-01</v>
       </c>
       <c r="D14" t="str">
-        <v>2023-04-22</v>
+        <v>2023-05-01</v>
       </c>
       <c r="E14" t="str">
-        <v>8:00</v>
-      </c>
-      <c r="F14" t="str">
-        <v>11:30</v>
+        <v>Morning</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>805630f6-9b04-4c58-89dd-27c63cfb8516</v>
+        <v>ad23b797-e29f-4f41-812b-caf767c1ba05</v>
       </c>
       <c r="B15" t="str">
-        <v>7a774d99-0e16-497e-b78f-38027d81044a</v>
+        <v>03b1f097-cabc-408a-a946-a25289fd1b1a</v>
       </c>
       <c r="C15" t="str">
-        <v>2023-05-14</v>
+        <v>2023-05-30</v>
       </c>
       <c r="D15" t="str">
-        <v>2023-05-14</v>
+        <v>2023-05-31</v>
       </c>
       <c r="E15" t="str">
-        <v>8:00</v>
-      </c>
-      <c r="F15" t="str">
-        <v>10:00</v>
+        <v>Afternoon</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>3bb3b6b3-b59b-429c-9350-f79fcd978302</v>
+        <v>b819ded7-ac14-41e2-b15d-ca364d8ded92</v>
       </c>
       <c r="B16" t="str">
-        <v>bcbf9608-6d95-44ef-b348-fb5b50ea095c</v>
+        <v>03b1f097-cabc-408a-a946-a25289fd1b1a</v>
       </c>
       <c r="C16" t="str">
-        <v>2023-04-29</v>
+        <v>2023-06-13</v>
       </c>
       <c r="D16" t="str">
-        <v>2023-04-29</v>
+        <v>2023-06-14</v>
       </c>
       <c r="E16" t="str">
-        <v>11:30</v>
-      </c>
-      <c r="F16" t="str">
-        <v xml:space="preserve">15:00	</v>
+        <v>Morning</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>1db477ec-82dd-44df-b518-af78b8bfe425</v>
+        <v>8b4099b1-2ff4-42c0-9400-49b4ec12a5c6</v>
       </c>
       <c r="B17" t="str">
-        <v>bcbf9608-6d95-44ef-b348-fb5b50ea095c</v>
+        <v>7b94a786-ecbb-47df-9477-cf18aeb1d4c4</v>
       </c>
       <c r="C17" t="str">
-        <v>2023-05-10</v>
+        <v>2023-05-03</v>
       </c>
       <c r="D17" t="str">
-        <v>2023-05-11</v>
+        <v>2023-05-03</v>
       </c>
       <c r="E17" t="str">
-        <v>8:00</v>
-      </c>
-      <c r="F17" t="str">
-        <v>9:30</v>
+        <v>Morning</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>712f4535-0c2f-4a20-aa37-5f76bcf86434</v>
+        <v>db9c116b-57b8-44f3-803f-cce9e7c508c4</v>
       </c>
       <c r="B18" t="str">
-        <v>f9601866-964e-4f8f-92a3-5e99f7f1d9cc</v>
+        <v>7b94a786-ecbb-47df-9477-cf18aeb1d4c4</v>
       </c>
       <c r="C18" t="str">
-        <v>2023-04-22</v>
+        <v>2023-05-24</v>
       </c>
       <c r="D18" t="str">
-        <v>2023-04-22</v>
+        <v>2023-05-25</v>
       </c>
       <c r="E18" t="str">
-        <v>9:00</v>
-      </c>
-      <c r="F18" t="str">
-        <v xml:space="preserve">13:30	</v>
+        <v>Afternoon</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>c6dd47ad-7470-4196-aa11-9221b3e74d71</v>
+        <v>a307d5d6-af85-4ed6-9d62-9c8ae7611cb5</v>
       </c>
       <c r="B19" t="str">
-        <v>f9601866-964e-4f8f-92a3-5e99f7f1d9cc</v>
+        <v>7b94a786-ecbb-47df-9477-cf18aeb1d4c4</v>
       </c>
       <c r="C19" t="str">
-        <v>2023-05-08</v>
+        <v>2023-06-12</v>
       </c>
       <c r="D19" t="str">
-        <v>2023-05-08</v>
+        <v>2023-06-13</v>
       </c>
       <c r="E19" t="str">
-        <v>8:30</v>
-      </c>
-      <c r="F19" t="str">
-        <v xml:space="preserve">14:00	</v>
+        <v>WholeDay</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>585c0ea6-a758-483d-842a-46e33168a185</v>
+        <v>89d37f39-7628-4d1d-bc2a-5960934294c9</v>
       </c>
       <c r="B20" t="str">
-        <v>b3d5fd58-55e3-4920-ae44-f30abe9ac904</v>
+        <v>7a774d99-0e16-497e-b78f-38027d81044a</v>
       </c>
       <c r="C20" t="str">
-        <v>2023-04-26</v>
+        <v>2023-04-30</v>
       </c>
       <c r="D20" t="str">
-        <v>2023-04-26</v>
+        <v>2023-04-30</v>
       </c>
       <c r="E20" t="str">
-        <v>8:30</v>
-      </c>
-      <c r="F20" t="str">
-        <v xml:space="preserve">17:00	</v>
+        <v>WholeDay</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2324f2b7-4dd1-4d0a-9ae9-7307639d62b9</v>
+        <v>300a856b-2b1d-4690-9fab-e7d141b50e34</v>
       </c>
       <c r="B21" t="str">
+        <v>7a774d99-0e16-497e-b78f-38027d81044a</v>
+      </c>
+      <c r="C21" t="str">
+        <v>2023-05-26</v>
+      </c>
+      <c r="D21" t="str">
+        <v>2023-05-26</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Afternoon</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>18f1152a-9d10-46f4-aea4-cbfebb57853f</v>
+      </c>
+      <c r="B22" t="str">
+        <v>7a774d99-0e16-497e-b78f-38027d81044a</v>
+      </c>
+      <c r="C22" t="str">
+        <v>2023-06-11</v>
+      </c>
+      <c r="D22" t="str">
+        <v>2023-06-12</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Afternoon</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>82861569-e2a0-43ae-9dc4-050983ad75b3</v>
+      </c>
+      <c r="B23" t="str">
+        <v>bcbf9608-6d95-44ef-b348-fb5b50ea095c</v>
+      </c>
+      <c r="C23" t="str">
+        <v>2023-04-30</v>
+      </c>
+      <c r="D23" t="str">
+        <v>2023-05-01</v>
+      </c>
+      <c r="E23" t="str">
+        <v>WholeDay</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>bd3ca5a2-e662-467a-99ad-80e303690c29</v>
+      </c>
+      <c r="B24" t="str">
+        <v>bcbf9608-6d95-44ef-b348-fb5b50ea095c</v>
+      </c>
+      <c r="C24" t="str">
+        <v>2023-05-20</v>
+      </c>
+      <c r="D24" t="str">
+        <v>2023-05-20</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Afternoon</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>bf0865b8-29bd-4ad6-87a7-3bff1786c03f</v>
+      </c>
+      <c r="B25" t="str">
+        <v>bcbf9608-6d95-44ef-b348-fb5b50ea095c</v>
+      </c>
+      <c r="C25" t="str">
+        <v>2023-06-13</v>
+      </c>
+      <c r="D25" t="str">
+        <v>2023-06-14</v>
+      </c>
+      <c r="E25" t="str">
+        <v>WholeDay</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>be0e96d9-d913-4658-9200-a63c279a939c</v>
+      </c>
+      <c r="B26" t="str">
+        <v>f9601866-964e-4f8f-92a3-5e99f7f1d9cc</v>
+      </c>
+      <c r="C26" t="str">
+        <v>2023-05-03</v>
+      </c>
+      <c r="D26" t="str">
+        <v>2023-05-03</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Afternoon</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>85a54f6d-3d26-4b48-88fc-478f979dd16f</v>
+      </c>
+      <c r="B27" t="str">
+        <v>f9601866-964e-4f8f-92a3-5e99f7f1d9cc</v>
+      </c>
+      <c r="C27" t="str">
+        <v>2023-05-29</v>
+      </c>
+      <c r="D27" t="str">
+        <v>2023-05-29</v>
+      </c>
+      <c r="E27" t="str">
+        <v>WholeDay</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>61d7116d-05a3-42bc-bf67-5bdbe128271d</v>
+      </c>
+      <c r="B28" t="str">
+        <v>f9601866-964e-4f8f-92a3-5e99f7f1d9cc</v>
+      </c>
+      <c r="C28" t="str">
+        <v>2023-06-15</v>
+      </c>
+      <c r="D28" t="str">
+        <v>2023-06-16</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Afternoon</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>7868d079-c220-4618-b9da-e9f6d6860354</v>
+      </c>
+      <c r="B29" t="str">
         <v>b3d5fd58-55e3-4920-ae44-f30abe9ac904</v>
       </c>
-      <c r="C21" t="str">
-        <v>2023-05-11</v>
-      </c>
-      <c r="D21" t="str">
-        <v>2023-05-12</v>
-      </c>
-      <c r="E21" t="str">
-        <v>8:00</v>
-      </c>
-      <c r="F21" t="str">
-        <v xml:space="preserve">14:00	</v>
+      <c r="C29" t="str">
+        <v>2023-05-01</v>
+      </c>
+      <c r="D29" t="str">
+        <v>2023-05-01</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Morning</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>35e1a016-de53-4713-b75d-f191e610bc23</v>
+      </c>
+      <c r="B30" t="str">
+        <v>b3d5fd58-55e3-4920-ae44-f30abe9ac904</v>
+      </c>
+      <c r="C30" t="str">
+        <v>2023-05-27</v>
+      </c>
+      <c r="D30" t="str">
+        <v>2023-05-27</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Afternoon</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>f409d476-41ff-44c0-91e8-435cb5a183fe</v>
+      </c>
+      <c r="B31" t="str">
+        <v>b3d5fd58-55e3-4920-ae44-f30abe9ac904</v>
+      </c>
+      <c r="C31" t="str">
+        <v>2023-06-16</v>
+      </c>
+      <c r="D31" t="str">
+        <v>2023-06-16</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Morning</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E31"/>
   </ignoredErrors>
 </worksheet>
 </file>